--- a/assets/data/item.xlsx
+++ b/assets/data/item.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/webroot/assets/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/wcs-check-master/assets/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF35CC1F-95B4-0F45-9444-9BDB0C7D406A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66D3BBCE-52CE-7A44-AB09-7ED63D77D1DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6671" uniqueCount="2514">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6674" uniqueCount="2517">
   <si>
     <t>Academic Emergency Medicine</t>
   </si>
@@ -7574,6 +7574,15 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>proPhysik.jpg</t>
+  </si>
+  <si>
+    <t>aabbNews.jpg</t>
+  </si>
+  <si>
+    <t>Chemistry Views.jpg</t>
   </si>
 </sst>
 </file>
@@ -8436,9 +8445,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S502"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A423" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P442" sqref="P442"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q93" sqref="Q93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8572,7 +8581,9 @@
       <c r="P2" s="1" t="s">
         <v>1228</v>
       </c>
-      <c r="Q2" s="1"/>
+      <c r="Q2" s="1" t="s">
+        <v>2515</v>
+      </c>
       <c r="R2" s="1" t="s">
         <v>1229</v>
       </c>
@@ -13831,7 +13842,9 @@
       <c r="P93" s="1" t="s">
         <v>1392</v>
       </c>
-      <c r="Q93" s="1"/>
+      <c r="Q93" s="1" t="s">
+        <v>2516</v>
+      </c>
       <c r="R93" s="1" t="s">
         <v>2513</v>
       </c>
@@ -31225,7 +31238,9 @@
       <c r="P395" s="4" t="s">
         <v>1817</v>
       </c>
-      <c r="Q395" s="1"/>
+      <c r="Q395" s="1" t="s">
+        <v>2514</v>
+      </c>
       <c r="R395" s="1" t="s">
         <v>1229</v>
       </c>
